--- a/TestCase/Test Case 15.xlsx
+++ b/TestCase/Test Case 15.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="ID 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="93">
   <si>
     <t>ID</t>
   </si>
@@ -77,12 +77,6 @@
     <t>https://telnyx.com/ is opened</t>
   </si>
   <si>
-    <t>Email address is entered</t>
-  </si>
-  <si>
-    <t>Password is entered</t>
-  </si>
-  <si>
     <t>Click Login in button</t>
   </si>
   <si>
@@ -92,9 +86,6 @@
     <t>Click Log In link</t>
   </si>
   <si>
-    <t>Log In page is opened</t>
-  </si>
-  <si>
     <t>Enter invalid email in Bussines email input</t>
   </si>
   <si>
@@ -116,12 +107,6 @@
     <t>Click on Bring Your Own Carrier link</t>
   </si>
   <si>
-    <t>Resources popover to display is shown.</t>
-  </si>
-  <si>
-    <t>The Bring-your-own-carrier is opened</t>
-  </si>
-  <si>
     <t>Enter valid email in Bussines email input</t>
   </si>
   <si>
@@ -140,15 +125,9 @@
     <t>Click the Read customer story link in the Lightspeed banner</t>
   </si>
   <si>
-    <t>Lightspeed page is opened</t>
-  </si>
-  <si>
     <t>Click the Toll-Free Numbers link on PRODUCTS USED side bar</t>
   </si>
   <si>
-    <t>Header Get Your Toll-Free 800 Number in Minutes is opened</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verify the "Add to cart" button adds a "Toll-Free 800 Number" to the shopping cart on the Toll-free-numbers page </t>
   </si>
   <si>
@@ -164,9 +143,6 @@
     <t>Enter valid information in the Search input</t>
   </si>
   <si>
-    <t>Information is entered in Search input</t>
-  </si>
-  <si>
     <t>Click on Search Button</t>
   </si>
   <si>
@@ -185,15 +161,9 @@
     <t>Click Number-lookup link</t>
   </si>
   <si>
-    <t>The Number-lookup page is opened</t>
-  </si>
-  <si>
     <t>Click country Listbox</t>
   </si>
   <si>
-    <t>The Country Listbox is opened</t>
-  </si>
-  <si>
     <t>Choose a country from Listbox</t>
   </si>
   <si>
@@ -312,6 +282,36 @@
   </si>
   <si>
     <t>The Number-lookup page should be opened</t>
+  </si>
+  <si>
+    <t>Log In page should be opened</t>
+  </si>
+  <si>
+    <t>Email address should be entered</t>
+  </si>
+  <si>
+    <t>Password should be entered</t>
+  </si>
+  <si>
+    <t>Resources popover to display should be shown.</t>
+  </si>
+  <si>
+    <t>The Bring-your-own-carrier should be opened</t>
+  </si>
+  <si>
+    <t>Lightspeed page should be opened</t>
+  </si>
+  <si>
+    <t>Header Get Your Toll-Free 800 Number in Minutes should be opened</t>
+  </si>
+  <si>
+    <t>Information should be entered in Search input</t>
+  </si>
+  <si>
+    <t>The Country Listbox should be opened</t>
+  </si>
+  <si>
+    <t>An account has been created on the Telnyx website.</t>
   </si>
 </sst>
 </file>
@@ -939,7 +939,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -994,7 +994,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1005,14 +1005,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1022,12 +1023,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1046,27 +1060,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1089,9 +1090,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1231,13 +1237,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>257175</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
@@ -1480,8 +1486,8 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:H32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1506,8 +1512,8 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="51" t="s">
-        <v>85</v>
+      <c r="D1" s="20" t="s">
+        <v>75</v>
       </c>
       <c r="E1" s="21"/>
       <c r="F1" s="21"/>
@@ -1529,12 +1535,12 @@
       <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="29" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
-      <c r="D3" s="28"/>
+      <c r="D3" s="30"/>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
@@ -1544,21 +1550,23 @@
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="23"/>
+      <c r="B5" s="23" t="s">
+        <v>92</v>
+      </c>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
@@ -1567,7 +1575,7 @@
       <c r="H5" s="26"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="28" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="21"/>
@@ -1579,15 +1587,15 @@
       <c r="H6" s="22"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="32"/>
+      <c r="E7" s="33"/>
       <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
@@ -1602,14 +1610,14 @@
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="32"/>
+      <c r="B8" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="33"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
@@ -1618,14 +1626,14 @@
       <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="32"/>
+      <c r="B9" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="33"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
@@ -1634,14 +1642,14 @@
       <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="32"/>
+      <c r="B10" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="33"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
@@ -1650,14 +1658,14 @@
       <c r="A11" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="32"/>
+      <c r="B11" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="33"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
@@ -1666,10 +1674,10 @@
       <c r="A12" s="6">
         <v>5</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="32"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="33"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
@@ -1678,10 +1686,10 @@
       <c r="A13" s="6">
         <v>6</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="32"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="33"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
@@ -1690,59 +1698,60 @@
       <c r="A14" s="10">
         <v>7</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="44"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="40"/>
       <c r="E15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="47"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:H15"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1770,8 +1779,8 @@
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="51" t="s">
-        <v>91</v>
+      <c r="D2" s="20" t="s">
+        <v>81</v>
       </c>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
@@ -1793,12 +1802,12 @@
       <c r="H3" s="26"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="29" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
-      <c r="D4" s="28"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
@@ -1808,15 +1817,15 @@
       <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
@@ -1831,7 +1840,7 @@
       <c r="H6" s="26"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="28" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="21"/>
@@ -1843,15 +1852,15 @@
       <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="33" t="s">
+      <c r="B8" s="32"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="32"/>
+      <c r="E8" s="33"/>
       <c r="F8" s="8" t="s">
         <v>8</v>
       </c>
@@ -1862,34 +1871,34 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>1</v>
       </c>
-      <c r="B9" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" s="32"/>
+      <c r="B9" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="33"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>2</v>
       </c>
-      <c r="B10" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="32"/>
+      <c r="B10" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="33"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
@@ -1898,10 +1907,10 @@
       <c r="A11" s="6">
         <v>3</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="32"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="33"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
@@ -1910,10 +1919,10 @@
       <c r="A12" s="6">
         <v>4</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="32"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="33"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
@@ -1922,10 +1931,10 @@
       <c r="A13" s="6">
         <v>5</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="32"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="33"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
@@ -1934,10 +1943,10 @@
       <c r="A14" s="6">
         <v>6</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="32"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="33"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="9"/>
@@ -1946,48 +1955,30 @@
       <c r="A15" s="10">
         <v>7</v>
       </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="49"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="44"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="40"/>
       <c r="E16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="45"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="47"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="F16:H16"/>
@@ -1997,6 +1988,24 @@
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2009,7 +2018,7 @@
   </sheetPr>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
@@ -2035,8 +2044,8 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="51" t="s">
-        <v>64</v>
+      <c r="D1" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="E1" s="21"/>
       <c r="F1" s="21"/>
@@ -2058,12 +2067,12 @@
       <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="29" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
-      <c r="D3" s="28"/>
+      <c r="D3" s="30"/>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
@@ -2073,15 +2082,15 @@
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
@@ -2096,7 +2105,7 @@
       <c r="H5" s="26"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="28" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="21"/>
@@ -2108,15 +2117,15 @@
       <c r="H6" s="22"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="32"/>
+      <c r="E7" s="33"/>
       <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
@@ -2131,14 +2140,14 @@
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="32"/>
+      <c r="B8" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="33"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
@@ -2147,14 +2156,14 @@
       <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="39"/>
+      <c r="B9" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="45"/>
+      <c r="D9" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="47"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
@@ -2163,14 +2172,14 @@
       <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="32"/>
+      <c r="B10" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="33"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
@@ -2179,14 +2188,14 @@
       <c r="A11" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="32"/>
+      <c r="B11" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="33"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
@@ -2195,10 +2204,10 @@
       <c r="A12" s="6">
         <v>5</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="32"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="33"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
@@ -2207,10 +2216,10 @@
       <c r="A13" s="6">
         <v>6</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="32"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="33"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
@@ -2219,32 +2228,292 @@
       <c r="A14" s="10">
         <v>7</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="44"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="40"/>
       <c r="E15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="47"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
     </row>
     <row r="18" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" ht="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" ht="50.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="8" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>12</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="22"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="26"/>
+    </row>
+    <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="22"/>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A7" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="33"/>
+      <c r="F7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="33"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>2</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="45"/>
+      <c r="D9" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="47"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>3</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="33"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>4</v>
+      </c>
+      <c r="B11" s="35"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>5</v>
+      </c>
+      <c r="B12" s="36"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>6</v>
+      </c>
+      <c r="B13" s="36"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>7</v>
+      </c>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="41"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+    </row>
   </sheetData>
   <mergeCells count="27">
     <mergeCell ref="A15:B15"/>
@@ -2276,42 +2545,51 @@
     <mergeCell ref="D3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист1">
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="8" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="51" t="s">
-        <v>70</v>
+      <c r="D1" s="20" t="s">
+        <v>64</v>
       </c>
       <c r="E1" s="21"/>
       <c r="F1" s="21"/>
       <c r="G1" s="21"/>
       <c r="H1" s="22"/>
     </row>
-    <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -2325,33 +2603,33 @@
       <c r="G2" s="25"/>
       <c r="H2" s="26"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
-      <c r="D3" s="28"/>
+      <c r="D3" s="30"/>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -2363,8 +2641,8 @@
       <c r="G5" s="25"/>
       <c r="H5" s="26"/>
     </row>
-    <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="21"/>
@@ -2374,17 +2652,18 @@
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="22"/>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+      <c r="K6" s="16"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="32"/>
+      <c r="E7" s="33"/>
       <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
@@ -2395,115 +2674,107 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="32"/>
+      <c r="B8" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="33"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="39"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="47"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="32"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="33"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="32"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="33"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>5</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="32"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="33"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>6</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="32"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="33"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>7</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="44"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="40"/>
       <c r="E15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="47"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -2534,268 +2805,6 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист1">
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:K15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>13</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>1</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>2</v>
-      </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22"/>
-      <c r="K6" s="16"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <v>1</v>
-      </c>
-      <c r="B8" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
-        <v>2</v>
-      </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <v>3</v>
-      </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
-        <v>4</v>
-      </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
-        <v>5</v>
-      </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
-        <v>6</v>
-      </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>7</v>
-      </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="47"/>
-    </row>
-  </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2864,8 +2873,8 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="51" t="s">
-        <v>89</v>
+      <c r="D1" s="20" t="s">
+        <v>79</v>
       </c>
       <c r="E1" s="21"/>
       <c r="F1" s="21"/>
@@ -2887,12 +2896,12 @@
       <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="29" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
-      <c r="D3" s="28"/>
+      <c r="D3" s="30"/>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
@@ -2902,15 +2911,15 @@
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
@@ -2925,7 +2934,7 @@
       <c r="H5" s="26"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="28" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="21"/>
@@ -2938,15 +2947,15 @@
       <c r="K6" s="16"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="32"/>
+      <c r="E7" s="33"/>
       <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
@@ -2961,14 +2970,14 @@
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="32"/>
+      <c r="B8" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="33"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
@@ -2977,14 +2986,14 @@
       <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="39"/>
+      <c r="B9" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="45"/>
+      <c r="D9" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="47"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
@@ -2993,10 +3002,10 @@
       <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="32"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="33"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
@@ -3005,10 +3014,10 @@
       <c r="A11" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="32"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="33"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
@@ -3017,10 +3026,10 @@
       <c r="A12" s="6">
         <v>5</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="32"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="33"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
@@ -3029,10 +3038,10 @@
       <c r="A13" s="6">
         <v>6</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="32"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="33"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
@@ -3041,33 +3050,51 @@
       <c r="A14" s="10">
         <v>7</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="44"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="40"/>
       <c r="E15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="47"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
     </row>
     <row r="18" ht="33" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" ht="48.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="F15:H15"/>
@@ -3077,24 +3104,6 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3135,10 +3144,335 @@
   <sheetPr codeName="Лист3">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="A1:H15"/>
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" customWidth="1"/>
+    <col min="8" max="10" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="33"/>
+      <c r="F7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+    </row>
+    <row r="8" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="64"/>
+      <c r="D8" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="64"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+    </row>
+    <row r="9" spans="1:10" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>2</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="64"/>
+      <c r="D9" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="64"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+    </row>
+    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>3</v>
+      </c>
+      <c r="B10" s="35"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+    </row>
+    <row r="11" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>4</v>
+      </c>
+      <c r="B11" s="35"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>5</v>
+      </c>
+      <c r="B12" s="36"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>6</v>
+      </c>
+      <c r="B13" s="36"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>7</v>
+      </c>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="41"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="15361" r:id="rId4" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="15361" r:id="rId4" name="Control 1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3153,25 +3487,25 @@
     <col min="8" max="8" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="64"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -3185,33 +3519,33 @@
       <c r="G2" s="25"/>
       <c r="H2" s="26"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
-      <c r="D3" s="28"/>
+      <c r="D3" s="30"/>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -3223,8 +3557,8 @@
       <c r="G5" s="25"/>
       <c r="H5" s="26"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="21"/>
@@ -3234,18 +3568,17 @@
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="22"/>
-      <c r="K6" s="16"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="32"/>
+      <c r="E7" s="33"/>
       <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
@@ -3256,111 +3589,379 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="65"/>
+      <c r="B8" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="51"/>
+      <c r="D8" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="51"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:11" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
+        <v>2</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="45"/>
+      <c r="D9" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="47"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>3</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="49"/>
+      <c r="D10" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="49"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>4</v>
+      </c>
+      <c r="B11" s="36"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>5</v>
+      </c>
+      <c r="B12" s="36"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>6</v>
+      </c>
+      <c r="B13" s="36"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>7</v>
+      </c>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="41"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="8" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="22"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="26"/>
+    </row>
+    <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="22"/>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A7" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="33"/>
+      <c r="F7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="33"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="52" t="s">
+      <c r="B9" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="E9" s="65"/>
+      <c r="E9" s="33"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="32"/>
+      <c r="B10" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="33"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="32"/>
+      <c r="B11" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="33"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>5</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="32"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="33"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>6</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="32"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="33"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>7</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="44"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="40"/>
       <c r="E15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="47"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -3393,48 +3994,284 @@
     <mergeCell ref="D3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="15361" r:id="rId4" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="15361" r:id="rId4" name="Control 1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </controls>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="22"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="26"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="22"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="33"/>
+      <c r="F7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="33"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>2</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>3</v>
+      </c>
+      <c r="B10" s="35"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>4</v>
+      </c>
+      <c r="B11" s="54"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>5</v>
+      </c>
+      <c r="B12" s="35"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>6</v>
+      </c>
+      <c r="B13" s="35"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>7</v>
+      </c>
+      <c r="B14" s="36"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="41"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:H15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3454,13 +4291,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E1" s="21"/>
       <c r="F1" s="21"/>
@@ -3482,12 +4319,12 @@
       <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="29" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
-      <c r="D3" s="28"/>
+      <c r="D3" s="30"/>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
@@ -3497,15 +4334,15 @@
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
@@ -3520,7 +4357,7 @@
       <c r="H5" s="26"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="28" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="21"/>
@@ -3532,15 +4369,15 @@
       <c r="H6" s="22"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="32"/>
+      <c r="E7" s="33"/>
       <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
@@ -3551,62 +4388,62 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="35"/>
+      <c r="B8" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="33"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14">
+    <row r="9" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="15"/>
+      <c r="B9" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="41"/>
+      <c r="B10" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="33"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="32"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="33"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
@@ -3615,10 +4452,10 @@
       <c r="A12" s="6">
         <v>5</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="32"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="33"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
@@ -3627,10 +4464,10 @@
       <c r="A13" s="6">
         <v>6</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="32"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="33"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
@@ -3639,28 +4476,42 @@
       <c r="A14" s="10">
         <v>7</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="44"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="40"/>
       <c r="E15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="47"/>
-    </row>
+      <c r="F15" s="41"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+    </row>
+    <row r="18" ht="36.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="36.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="36.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="36.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="36.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="36.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="27">
     <mergeCell ref="A15:B15"/>
@@ -3692,21 +4543,20 @@
     <mergeCell ref="D3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="8" width="11.28515625" customWidth="1"/>
+    <col min="1" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
@@ -3714,20 +4564,20 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="51" t="s">
-        <v>86</v>
+      <c r="D1" s="20" t="s">
+        <v>34</v>
       </c>
       <c r="E1" s="21"/>
       <c r="F1" s="21"/>
       <c r="G1" s="21"/>
       <c r="H1" s="22"/>
     </row>
-    <row r="2" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -3742,45 +4592,45 @@
       <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="63"/>
     </row>
     <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="A4" s="18">
         <v>1</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="17">
         <v>2</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="58"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="28" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="21"/>
@@ -3791,16 +4641,16 @@
       <c r="G6" s="21"/>
       <c r="H6" s="22"/>
     </row>
-    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="32"/>
+      <c r="E7" s="33"/>
       <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
@@ -3811,66 +4661,66 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="32"/>
+      <c r="B8" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="33"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="32"/>
+      <c r="B9" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="33"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="32"/>
+      <c r="B10" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="33"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="32"/>
+      <c r="B11" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="33"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
@@ -3879,10 +4729,10 @@
       <c r="A12" s="6">
         <v>5</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="32"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="33"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
@@ -3891,10 +4741,10 @@
       <c r="A13" s="6">
         <v>6</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="32"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="33"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
@@ -3903,27 +4753,27 @@
       <c r="A14" s="10">
         <v>7</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="44"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="40"/>
       <c r="E15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="47"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -3959,48 +4809,38 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" customWidth="1"/>
+    <col min="1" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="51" t="s">
-        <v>33</v>
+      <c r="D1" s="20" t="s">
+        <v>80</v>
       </c>
       <c r="E1" s="21"/>
       <c r="F1" s="21"/>
       <c r="G1" s="21"/>
       <c r="H1" s="22"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -4014,33 +4854,33 @@
       <c r="G2" s="25"/>
       <c r="H2" s="26"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
-      <c r="D3" s="28"/>
+      <c r="D3" s="30"/>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -4052,8 +4892,8 @@
       <c r="G5" s="25"/>
       <c r="H5" s="26"/>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+    <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="21"/>
@@ -4064,16 +4904,16 @@
       <c r="G6" s="21"/>
       <c r="H6" s="22"/>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="32"/>
+      <c r="E7" s="33"/>
       <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
@@ -4084,396 +4924,108 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="32"/>
+      <c r="B8" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="33"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="32"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="33"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="32"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="33"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="54"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="33"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>5</v>
       </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="32"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="33"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>6</v>
       </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="32"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="33"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>7</v>
-      </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="47"/>
-    </row>
-  </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:H31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="A18:H32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>5</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>1</v>
-      </c>
-      <c r="B4" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>2</v>
-      </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <v>1</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
-        <v>2</v>
-      </c>
-      <c r="B9" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <v>3</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
-        <v>4</v>
-      </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
-        <v>5</v>
-      </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
-        <v>6</v>
-      </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>7</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="44"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="40"/>
       <c r="E15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="47"/>
-    </row>
-    <row r="18" ht="36.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="36.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="36.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="36.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="36.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="36.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+    </row>
   </sheetData>
   <mergeCells count="27">
     <mergeCell ref="B4:H4"/>
@@ -4508,38 +5060,48 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:I1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="9" width="13" customWidth="1"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="51" t="s">
-        <v>41</v>
+      <c r="D1" s="20" t="s">
+        <v>40</v>
       </c>
       <c r="E1" s="21"/>
       <c r="F1" s="21"/>
       <c r="G1" s="21"/>
       <c r="H1" s="22"/>
     </row>
-    <row r="2" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -4553,46 +5115,46 @@
       <c r="G2" s="25"/>
       <c r="H2" s="26"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="62"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="18">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="22"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="57"/>
-    </row>
-    <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="26"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="21"/>
@@ -4603,16 +5165,279 @@
       <c r="G6" s="21"/>
       <c r="H6" s="22"/>
     </row>
-    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="32"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="33"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>2</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>3</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="33"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>4</v>
+      </c>
+      <c r="B11" s="36"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>5</v>
+      </c>
+      <c r="B12" s="36"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>6</v>
+      </c>
+      <c r="B13" s="36"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>7</v>
+      </c>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="41"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+    </row>
+    <row r="34" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="42" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="41.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="8" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="22"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="26"/>
+    </row>
+    <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="22"/>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A7" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="33"/>
       <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
@@ -4627,62 +5452,54 @@
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="32"/>
+      <c r="B8" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="33"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="32"/>
+      <c r="B9" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="33"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="32"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="33"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="32"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="33"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
@@ -4691,10 +5508,10 @@
       <c r="A12" s="6">
         <v>5</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="32"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="33"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
@@ -4703,10 +5520,10 @@
       <c r="A13" s="6">
         <v>6</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="32"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="33"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
@@ -4715,27 +5532,27 @@
       <c r="A14" s="10">
         <v>7</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="44"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="40"/>
       <c r="E15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="47"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -4769,783 +5586,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:H1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="8" width="17" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>7</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>1</v>
-      </c>
-      <c r="B4" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>2</v>
-      </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
-    </row>
-    <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22"/>
-    </row>
-    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <v>1</v>
-      </c>
-      <c r="B8" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
-        <v>2</v>
-      </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <v>3</v>
-      </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
-        <v>4</v>
-      </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
-        <v>5</v>
-      </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
-        <v>6</v>
-      </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>7</v>
-      </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="47"/>
-    </row>
-  </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:H42"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:H31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>8</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>1</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>2</v>
-      </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <v>1</v>
-      </c>
-      <c r="B8" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
-        <v>2</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <v>3</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
-        <v>4</v>
-      </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
-        <v>5</v>
-      </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
-        <v>6</v>
-      </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>7</v>
-      </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="47"/>
-    </row>
-    <row r="34" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="42" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="41.25" customHeight="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="8" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>9</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>1</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>2</v>
-      </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
-    </row>
-    <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22"/>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <v>1</v>
-      </c>
-      <c r="B8" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
-        <v>2</v>
-      </c>
-      <c r="B9" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <v>3</v>
-      </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
-        <v>4</v>
-      </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
-        <v>5</v>
-      </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
-        <v>6</v>
-      </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>7</v>
-      </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="47"/>
-    </row>
-  </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/TestCase/Test Case 15.xlsx
+++ b/TestCase/Test Case 15.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="3" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="ID 1" sheetId="1" r:id="rId1"/>
@@ -98,9 +98,6 @@
     <t xml:space="preserve">The App page and Title-bar should be visible </t>
   </si>
   <si>
-    <t>Check on the bring-your-own-carrier page the "Try it free" button.</t>
-  </si>
-  <si>
     <t>Mouseover to the link to the Resources page</t>
   </si>
   <si>
@@ -119,9 +116,6 @@
     <t>Click Next Item button</t>
   </si>
   <si>
-    <t>Verify the Next Item button twice click on the Telnyx page</t>
-  </si>
-  <si>
     <t>Click the Read customer story link in the Lightspeed banner</t>
   </si>
   <si>
@@ -137,9 +131,6 @@
     <t>The shopping cart image should appear</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify the Search button shows search results on "Or search for other numbers" banner on the Toll-free-numbers page </t>
-  </si>
-  <si>
     <t>Enter valid information in the Search input</t>
   </si>
   <si>
@@ -155,9 +146,6 @@
     <t xml:space="preserve"> The contact-us page page should  be opened</t>
   </si>
   <si>
-    <t>Verify country from the list box has a valid country code value on Number-lookup page</t>
-  </si>
-  <si>
     <t>Click Number-lookup link</t>
   </si>
   <si>
@@ -170,9 +158,6 @@
     <t>Valid country code should be shown in Number input</t>
   </si>
   <si>
-    <t xml:space="preserve">Check the "Explore use-case guides" Button (on the Number-lookup page) click opens the Telnyx Developers Messaging page. </t>
-  </si>
-  <si>
     <t>Click Explore use-case guides button</t>
   </si>
   <si>
@@ -197,9 +182,6 @@
     <t>The IoT-data-plans Page should be opened</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify the 'See IoT data plans and pricing in" Link (on the IoT-data-plans Page )opens the Pricing page for the chosen country. </t>
-  </si>
-  <si>
     <t>The country Listbox should be opened</t>
   </si>
   <si>
@@ -215,9 +197,6 @@
     <t>Click on "See IoT data plans and pricing in" Link</t>
   </si>
   <si>
-    <t>Verify click on the 'How does pricing work for IoT data plans?' question opens answer on the IoT-data-plans Page.</t>
-  </si>
-  <si>
     <t>Click on the How does pricing work for IoT data plans?' question</t>
   </si>
   <si>
@@ -227,9 +206,6 @@
     <t>Click Careers link</t>
   </si>
   <si>
-    <t>Verify the job offer links on the Careers page is  visible</t>
-  </si>
-  <si>
     <t>The Careers page should be opened and the job offer links should be visible</t>
   </si>
   <si>
@@ -245,9 +221,6 @@
     <t>The Log in page should be opened</t>
   </si>
   <si>
-    <t>Check registration with an empty data in Sign up link on the Main page</t>
-  </si>
-  <si>
     <t>Click the Sign up link</t>
   </si>
   <si>
@@ -260,9 +233,6 @@
     <t>The message "This field is required." should appear near the Work email input and the Full name input</t>
   </si>
   <si>
-    <t>Check Log In  with valid data in Log in page</t>
-  </si>
-  <si>
     <t>Check Log In with a valid but not registered email address on the login page.</t>
   </si>
   <si>
@@ -272,15 +242,6 @@
     <t>The picture with Dayton Turner should be visible</t>
   </si>
   <si>
-    <t xml:space="preserve">Check the Log in link (on the Sign-up page) opens Sign up page </t>
-  </si>
-  <si>
-    <t>Check the Talk to an expert button (on Home page) click opens the Contact-us page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify the Elastic SIP Trunking Link (on  Number-lookup page) opens the Thesip-trunks page. </t>
-  </si>
-  <si>
     <t>The Number-lookup page should be opened</t>
   </si>
   <si>
@@ -312,6 +273,45 @@
   </si>
   <si>
     <t>An account has been created on the Telnyx website.</t>
+  </si>
+  <si>
+    <t>Check Log In  with valid data on the Login page</t>
+  </si>
+  <si>
+    <t>Check the "Try it free" button on the bring-your-own-carrier page.</t>
+  </si>
+  <si>
+    <t>Check click of the Next Item button on the Telnyx page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the Search button shows search results on the "Or search for other numbers" banner on the Toll-free-numbers page </t>
+  </si>
+  <si>
+    <t>Verify clicking on the "Talk to an expert" button on the main page opens the Contact-us page.</t>
+  </si>
+  <si>
+    <t>Verify country from the list box has a valid country code value on the Number-lookup page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify click of the Elastic SIP Trunking Link on the Number-lookup page opens the Thesip-trunks page. </t>
+  </si>
+  <si>
+    <t>Check click of the "Explore use-case guides" Button on the Number-lookup page opens the Telnyx Developers Messaging page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify click of the "See IoT data plans and pricing in" link on the IoT-data-plans Page opens the Pricing page for the chosen country. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify click of the 'How does pricing work for IoT data plans?' link on the IoT-data-plans page opens the answer. </t>
+  </si>
+  <si>
+    <t>Verify the job offer links on the Careers page are  visible</t>
+  </si>
+  <si>
+    <t>Verify click of the Login link on the Sign-up page opens the Signup page.</t>
+  </si>
+  <si>
+    <t>Check Sign-up with empty data on the Signup page</t>
   </si>
 </sst>
 </file>
@@ -994,41 +994,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1042,6 +1016,46 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1060,27 +1074,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1090,14 +1090,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1246,7 +1246,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>257175</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1486,8 +1486,8 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1512,90 +1512,90 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
+      <c r="D1" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="35"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
+      <c r="B5" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="33"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
@@ -1610,14 +1610,14 @@
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" s="33"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="24"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
@@ -1626,14 +1626,14 @@
       <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="33"/>
+      <c r="B9" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="24"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
@@ -1642,14 +1642,14 @@
       <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="33"/>
+      <c r="B10" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="24"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
@@ -1658,14 +1658,14 @@
       <c r="A11" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="36" t="s">
+      <c r="C11" s="24"/>
+      <c r="D11" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="33"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
@@ -1674,10 +1674,10 @@
       <c r="A12" s="6">
         <v>5</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="33"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
@@ -1686,10 +1686,10 @@
       <c r="A13" s="6">
         <v>6</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="33"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
@@ -1698,57 +1698,57 @@
       <c r="A14" s="10">
         <v>7</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="40"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="28"/>
       <c r="E15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:H15"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1760,7 +1760,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="D2" sqref="D2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1779,88 +1779,88 @@
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
+      <c r="D2" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
       <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="45"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="22"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="26"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="45"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="35"/>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34" t="s">
+      <c r="B8" s="39"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="33"/>
+      <c r="E8" s="24"/>
       <c r="F8" s="8" t="s">
         <v>8</v>
       </c>
@@ -1875,14 +1875,14 @@
       <c r="A9" s="6">
         <v>1</v>
       </c>
-      <c r="B9" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" s="33"/>
+      <c r="B9" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="24"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
@@ -1891,14 +1891,14 @@
       <c r="A10" s="6">
         <v>2</v>
       </c>
-      <c r="B10" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="33"/>
+      <c r="B10" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="24"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
@@ -1907,10 +1907,10 @@
       <c r="A11" s="6">
         <v>3</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="33"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
@@ -1919,10 +1919,10 @@
       <c r="A12" s="6">
         <v>4</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="33"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
@@ -1931,10 +1931,10 @@
       <c r="A13" s="6">
         <v>5</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="33"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
@@ -1943,10 +1943,10 @@
       <c r="A14" s="6">
         <v>6</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="33"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="9"/>
@@ -1955,30 +1955,48 @@
       <c r="A15" s="10">
         <v>7</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="26"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="40"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="28"/>
       <c r="E16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="41"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="43"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="F16:H16"/>
@@ -1988,24 +2006,6 @@
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2018,8 +2018,8 @@
   </sheetPr>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2044,88 +2044,88 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
+      <c r="D1" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="35"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="33"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
@@ -2140,14 +2140,14 @@
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="33"/>
+      <c r="B8" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="24"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
@@ -2156,14 +2156,14 @@
       <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="47"/>
+      <c r="B9" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="51"/>
+      <c r="D9" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="53"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
@@ -2172,14 +2172,14 @@
       <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="33"/>
+      <c r="B10" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="24"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
@@ -2188,14 +2188,14 @@
       <c r="A11" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="33"/>
+      <c r="B11" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="24"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
@@ -2204,10 +2204,10 @@
       <c r="A12" s="6">
         <v>5</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="33"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
@@ -2216,10 +2216,10 @@
       <c r="A13" s="6">
         <v>6</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="33"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
@@ -2228,32 +2228,292 @@
       <c r="A14" s="10">
         <v>7</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="40"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="28"/>
       <c r="E15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31"/>
     </row>
     <row r="18" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" ht="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" ht="50.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="8" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>12</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="35"/>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="42"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="35"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
+    </row>
+    <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="35"/>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A7" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="39"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="24"/>
+      <c r="F7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="24"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>2</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="51"/>
+      <c r="D9" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="53"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>3</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="24"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>4</v>
+      </c>
+      <c r="B11" s="32"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>5</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>6</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>7</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31"/>
+    </row>
   </sheetData>
   <mergeCells count="27">
     <mergeCell ref="B4:H4"/>
@@ -2285,115 +2545,125 @@
     <mergeCell ref="D14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист1">
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="D1" sqref="D1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="8" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="35"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="E2" s="42"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="35"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
-    </row>
-    <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="B5" s="42"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22"/>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="35"/>
+      <c r="K6" s="16"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="33"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
@@ -2404,115 +2674,107 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="33"/>
+      <c r="B8" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="24"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="47"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="53"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="33"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="24"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="33"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>5</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="33"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>6</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="33"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>7</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="40"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="28"/>
       <c r="E15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -2543,268 +2805,6 @@
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:H3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист1">
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:K15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>13</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>1</v>
-      </c>
-      <c r="B4" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>2</v>
-      </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22"/>
-      <c r="K6" s="16"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <v>1</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
-        <v>2</v>
-      </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <v>3</v>
-      </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
-        <v>4</v>
-      </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
-        <v>5</v>
-      </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
-        <v>6</v>
-      </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>7</v>
-      </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
-    </row>
-  </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2848,7 +2848,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="A17:H32"/>
+      <selection activeCell="D1" sqref="D1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2873,89 +2873,89 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
+      <c r="D1" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="35"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="35"/>
       <c r="K6" s="16"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="33"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
@@ -2970,14 +2970,14 @@
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="33"/>
+      <c r="B8" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="24"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
@@ -2986,14 +2986,14 @@
       <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="47"/>
+      <c r="B9" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="51"/>
+      <c r="D9" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="53"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
@@ -3002,10 +3002,10 @@
       <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="33"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="24"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
@@ -3014,10 +3014,10 @@
       <c r="A11" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="33"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
@@ -3026,10 +3026,10 @@
       <c r="A12" s="6">
         <v>5</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="33"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
@@ -3038,10 +3038,10 @@
       <c r="A13" s="6">
         <v>6</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="33"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
@@ -3050,51 +3050,33 @@
       <c r="A14" s="10">
         <v>7</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="40"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="28"/>
       <c r="E15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31"/>
     </row>
     <row r="18" ht="33" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" ht="48.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="F15:H15"/>
@@ -3104,6 +3086,24 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3146,8 +3146,8 @@
   </sheetPr>
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3172,59 +3172,59 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
+      <c r="D1" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
     </row>
@@ -3232,40 +3232,40 @@
       <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="33"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
@@ -3275,130 +3275,693 @@
       <c r="H7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="64"/>
+      <c r="B8" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="69"/>
+      <c r="D8" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="69"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
     </row>
     <row r="9" spans="1:10" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="64"/>
+      <c r="B9" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="69"/>
+      <c r="D9" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="69"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
     </row>
     <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="33"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="24"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
     </row>
     <row r="11" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="33"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>5</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="33"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>6</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="33"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>7</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="40"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="28"/>
       <c r="E15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="15361" r:id="rId4" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="15361" r:id="rId4" name="Control 1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="35"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="42"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="35"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="35"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="39"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="24"/>
+      <c r="F7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="49"/>
+      <c r="D8" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="49"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
+        <v>2</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="51"/>
+      <c r="D9" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="53"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>3</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="55"/>
+      <c r="D10" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="55"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>4</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>5</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>6</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>7</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="8" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="35"/>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="42"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="35"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
+    </row>
+    <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="35"/>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A7" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="39"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="24"/>
+      <c r="F7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="24"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>2</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="24"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>3</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="24"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>4</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="24"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>5</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>6</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>7</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -3431,40 +3994,10 @@
     <mergeCell ref="D14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="15361" r:id="rId4" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="15361" r:id="rId4" name="Control 1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </controls>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3472,7 +4005,273 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:E10"/>
+      <selection activeCell="D1" sqref="D1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="35"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="42"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="35"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="35"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="39"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="24"/>
+      <c r="F7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="24"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>2</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="24"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>3</v>
+      </c>
+      <c r="B10" s="32"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>4</v>
+      </c>
+      <c r="B11" s="57"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>5</v>
+      </c>
+      <c r="B12" s="32"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>6</v>
+      </c>
+      <c r="B13" s="32"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>7</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3492,93 +4291,93 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
+      <c r="D1" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="35"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="33"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
@@ -3589,62 +4388,62 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="E8" s="51"/>
+      <c r="B8" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="24"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14">
+    <row r="9" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="47"/>
-      <c r="F9" s="15"/>
+      <c r="B9" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="24"/>
+      <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="49"/>
+      <c r="B10" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="24"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="33"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
@@ -3653,10 +4452,10 @@
       <c r="A12" s="6">
         <v>5</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="33"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
@@ -3665,10 +4464,10 @@
       <c r="A13" s="6">
         <v>6</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="33"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
@@ -3677,28 +4476,42 @@
       <c r="A14" s="10">
         <v>7</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="40"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="28"/>
       <c r="E15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
-    </row>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31"/>
+    </row>
+    <row r="18" ht="36.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="36.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="36.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="36.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="36.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="36.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="27">
     <mergeCell ref="B4:H4"/>
@@ -3730,21 +4543,20 @@
     <mergeCell ref="D14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:E11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="8" width="11.28515625" customWidth="1"/>
+    <col min="1" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
@@ -3752,93 +4564,93 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
+      <c r="D1" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="63"/>
     </row>
     <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="A4" s="18">
         <v>1</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="17">
         <v>2</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="66"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="33"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
@@ -3849,66 +4661,66 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" s="33"/>
+      <c r="B8" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="24"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="33"/>
+      <c r="B9" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="24"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="33"/>
+      <c r="B10" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="24"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:8" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="33"/>
+      <c r="B11" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="24"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
@@ -3917,10 +4729,10 @@
       <c r="A12" s="6">
         <v>5</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="33"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
@@ -3929,10 +4741,10 @@
       <c r="A13" s="6">
         <v>6</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="33"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
@@ -3941,27 +4753,27 @@
       <c r="A14" s="10">
         <v>7</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="40"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="28"/>
       <c r="E15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -3997,121 +4809,111 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="D1" sqref="D1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" customWidth="1"/>
+    <col min="1" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="35"/>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="E2" s="42"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="35"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="B5" s="42"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
+    </row>
+    <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22"/>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="35"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="33"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
@@ -4122,396 +4924,108 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="33"/>
+      <c r="B8" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="24"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" s="33"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="24"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="33"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="55"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>5</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="33"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>6</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="33"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>7</v>
-      </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
-    </row>
-  </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:H15"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:H31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>5</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>1</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>2</v>
-      </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <v>1</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
-        <v>2</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <v>3</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
-        <v>4</v>
-      </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
-        <v>5</v>
-      </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
-        <v>6</v>
-      </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>7</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="40"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="28"/>
       <c r="E15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
-    </row>
-    <row r="18" ht="36.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="36.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="36.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="36.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="36.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="36.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31"/>
+    </row>
   </sheetData>
   <mergeCells count="27">
     <mergeCell ref="A15:B15"/>
@@ -4546,17 +5060,290 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="35"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="42"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="35"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="35"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="39"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="24"/>
+      <c r="F7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="24"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>2</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="24"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>3</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="24"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>4</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>5</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>6</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>7</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31"/>
+    </row>
+    <row r="34" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="42" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="41.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="9" width="13" customWidth="1"/>
+    <col min="1" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
@@ -4564,93 +5351,93 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
+      <c r="D1" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="63"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="35"/>
     </row>
     <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="18">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
+      <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="58"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="33"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
@@ -4661,66 +5448,58 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" s="33"/>
+      <c r="B8" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="24"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="33"/>
+      <c r="B9" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="24"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" s="33"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="33"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
@@ -4729,10 +5508,10 @@
       <c r="A12" s="6">
         <v>5</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="33"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
@@ -4741,10 +5520,10 @@
       <c r="A13" s="6">
         <v>6</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="33"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
@@ -4753,27 +5532,27 @@
       <c r="A14" s="10">
         <v>7</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="40"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="28"/>
       <c r="E15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -4807,783 +5586,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:H1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="8" width="17" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>7</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>1</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>2</v>
-      </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
-    </row>
-    <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22"/>
-    </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <v>1</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
-        <v>2</v>
-      </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <v>3</v>
-      </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
-        <v>4</v>
-      </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
-        <v>5</v>
-      </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
-        <v>6</v>
-      </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>7</v>
-      </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
-    </row>
-  </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:H42"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>8</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>1</v>
-      </c>
-      <c r="B4" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>2</v>
-      </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <v>1</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
-        <v>2</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <v>3</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
-        <v>4</v>
-      </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
-        <v>5</v>
-      </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
-        <v>6</v>
-      </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>7</v>
-      </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
-    </row>
-    <row r="34" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="42" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="41.25" customHeight="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="8" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>9</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>1</v>
-      </c>
-      <c r="B4" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>2</v>
-      </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
-    </row>
-    <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22"/>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <v>1</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
-        <v>2</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <v>3</v>
-      </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
-        <v>4</v>
-      </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
-        <v>5</v>
-      </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
-        <v>6</v>
-      </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>7</v>
-      </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
-    </row>
-  </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/TestCase/Test Case 15.xlsx
+++ b/TestCase/Test Case 15.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="3" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="ID 1" sheetId="1" r:id="rId1"/>
@@ -284,9 +284,6 @@
     <t>Check click of the Next Item button on the Telnyx page</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify the Search button shows search results on the "Or search for other numbers" banner on the Toll-free-numbers page </t>
-  </si>
-  <si>
     <t>Verify clicking on the "Talk to an expert" button on the main page opens the Contact-us page.</t>
   </si>
   <si>
@@ -312,6 +309,9 @@
   </si>
   <si>
     <t>Check Sign-up with empty data on the Signup page</t>
+  </si>
+  <si>
+    <t>Verify clicking on the Search button shows search results on the "Or search for other numbers" banner on the Toll-free-numbers page</t>
   </si>
 </sst>
 </file>
@@ -999,10 +999,41 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1016,46 +1047,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1074,6 +1065,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1081,6 +1081,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1090,14 +1095,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1486,7 +1486,7 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:H1"/>
     </sheetView>
   </sheetViews>
@@ -1512,90 +1512,90 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="35"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27"/>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="35"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="35"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="40" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="24"/>
+      <c r="E7" s="36"/>
       <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
@@ -1610,46 +1610,46 @@
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="23" t="s">
+      <c r="C8" s="36"/>
+      <c r="D8" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="24"/>
+      <c r="E8" s="36"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="23" t="s">
+      <c r="C9" s="36"/>
+      <c r="D9" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="24"/>
+      <c r="E9" s="36"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="23" t="s">
+      <c r="C10" s="36"/>
+      <c r="D10" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="24"/>
+      <c r="E10" s="36"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
@@ -1658,14 +1658,14 @@
       <c r="A11" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="23" t="s">
+      <c r="C11" s="36"/>
+      <c r="D11" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="24"/>
+      <c r="E11" s="36"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
@@ -1674,10 +1674,10 @@
       <c r="A12" s="6">
         <v>5</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="36"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
@@ -1686,10 +1686,10 @@
       <c r="A13" s="6">
         <v>6</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="36"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
@@ -1698,57 +1698,57 @@
       <c r="A14" s="10">
         <v>7</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="28"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="31"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:H15"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1779,88 +1779,88 @@
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="35"/>
+      <c r="D2" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="45"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="35"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="45"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="29"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="35"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="40" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="24"/>
+      <c r="E8" s="36"/>
       <c r="F8" s="8" t="s">
         <v>8</v>
       </c>
@@ -1875,14 +1875,14 @@
       <c r="A9" s="6">
         <v>1</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="32" t="s">
+      <c r="C9" s="36"/>
+      <c r="D9" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="24"/>
+      <c r="E9" s="36"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
@@ -1891,14 +1891,14 @@
       <c r="A10" s="6">
         <v>2</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="32" t="s">
+      <c r="C10" s="36"/>
+      <c r="D10" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="24"/>
+      <c r="E10" s="36"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
@@ -1907,10 +1907,10 @@
       <c r="A11" s="6">
         <v>3</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="36"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
@@ -1919,10 +1919,10 @@
       <c r="A12" s="6">
         <v>4</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="36"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
@@ -1931,10 +1931,10 @@
       <c r="A13" s="6">
         <v>5</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="36"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
@@ -1943,10 +1943,10 @@
       <c r="A14" s="6">
         <v>6</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="36"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="9"/>
@@ -1955,48 +1955,30 @@
       <c r="A15" s="10">
         <v>7</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="26"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="41"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="28"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="43"/>
       <c r="E16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="31"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="F16:H16"/>
@@ -2006,6 +1988,24 @@
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2044,88 +2044,88 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="35"/>
+      <c r="D1" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27"/>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="35"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="35"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="40" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="24"/>
+      <c r="E7" s="36"/>
       <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
@@ -2140,14 +2140,14 @@
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="32" t="s">
+      <c r="C8" s="36"/>
+      <c r="D8" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="24"/>
+      <c r="E8" s="36"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
@@ -2156,14 +2156,14 @@
       <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="52" t="s">
+      <c r="C9" s="48"/>
+      <c r="D9" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="53"/>
+      <c r="E9" s="50"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
@@ -2172,14 +2172,14 @@
       <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="23" t="s">
+      <c r="C10" s="36"/>
+      <c r="D10" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="24"/>
+      <c r="E10" s="36"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
@@ -2188,14 +2188,14 @@
       <c r="A11" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="32" t="s">
+      <c r="C11" s="36"/>
+      <c r="D11" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="24"/>
+      <c r="E11" s="36"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
@@ -2204,10 +2204,10 @@
       <c r="A12" s="6">
         <v>5</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="36"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
@@ -2216,10 +2216,10 @@
       <c r="A13" s="6">
         <v>6</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="36"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
@@ -2228,32 +2228,292 @@
       <c r="A14" s="10">
         <v>7</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="28"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="31"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="46"/>
     </row>
     <row r="18" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" ht="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" ht="50.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="8" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>12</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29"/>
+    </row>
+    <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="25"/>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A7" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="36"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>2</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="48"/>
+      <c r="D9" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="50"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>3</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="36"/>
+      <c r="D10" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="36"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>4</v>
+      </c>
+      <c r="B11" s="38"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>5</v>
+      </c>
+      <c r="B12" s="39"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>6</v>
+      </c>
+      <c r="B13" s="39"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>7</v>
+      </c>
+      <c r="B14" s="40"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="43"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="46"/>
+    </row>
   </sheetData>
   <mergeCells count="27">
     <mergeCell ref="A15:B15"/>
@@ -2285,115 +2545,125 @@
     <mergeCell ref="D3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист1">
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="D1" sqref="D1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="8" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="35"/>
-    </row>
-    <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27"/>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="E2" s="26"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="35"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
-    </row>
-    <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="35"/>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="25"/>
+      <c r="K6" s="16"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="40" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="24"/>
+      <c r="E7" s="36"/>
       <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
@@ -2404,115 +2674,107 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="24"/>
+      <c r="B8" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="36"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="53"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="50"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="24"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="36"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="24"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="36"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>5</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="36"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>6</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="36"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>7</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="28"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="31"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -2543,268 +2805,6 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист1">
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:K15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>13</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="35"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="35"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>1</v>
-      </c>
-      <c r="B4" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>2</v>
-      </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="35"/>
-      <c r="K6" s="16"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <v>1</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
-        <v>2</v>
-      </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <v>3</v>
-      </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
-        <v>4</v>
-      </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
-        <v>5</v>
-      </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
-        <v>6</v>
-      </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>7</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="31"/>
-    </row>
-  </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2873,89 +2873,89 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="35"/>
+      <c r="D1" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27"/>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="35"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="35"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="25"/>
       <c r="K6" s="16"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="40" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="24"/>
+      <c r="E7" s="36"/>
       <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
@@ -2970,14 +2970,14 @@
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="32" t="s">
+      <c r="C8" s="36"/>
+      <c r="D8" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="24"/>
+      <c r="E8" s="36"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
@@ -2986,14 +2986,14 @@
       <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="52" t="s">
+      <c r="C9" s="48"/>
+      <c r="D9" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="53"/>
+      <c r="E9" s="50"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
@@ -3002,10 +3002,10 @@
       <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="24"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="36"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
@@ -3014,10 +3014,10 @@
       <c r="A11" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="24"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="36"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
@@ -3026,10 +3026,10 @@
       <c r="A12" s="6">
         <v>5</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="36"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
@@ -3038,10 +3038,10 @@
       <c r="A13" s="6">
         <v>6</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="36"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
@@ -3050,33 +3050,51 @@
       <c r="A14" s="10">
         <v>7</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="28"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="31"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="46"/>
     </row>
     <row r="18" ht="33" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" ht="48.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="F15:H15"/>
@@ -3086,24 +3104,6 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3146,7 +3146,7 @@
   </sheetPr>
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -3172,13 +3172,13 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="68"/>
+      <c r="D1" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="69"/>
       <c r="I1" s="20"/>
       <c r="J1" s="20"/>
     </row>
@@ -3186,29 +3186,29 @@
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27"/>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="29"/>
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="35"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
       <c r="I3" s="21"/>
       <c r="J3" s="21"/>
     </row>
@@ -3216,15 +3216,15 @@
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
     </row>
@@ -3232,40 +3232,40 @@
       <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29"/>
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="35"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="25"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="40" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="24"/>
+      <c r="E7" s="36"/>
       <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
@@ -3282,14 +3282,14 @@
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="32" t="s">
+      <c r="C8" s="67"/>
+      <c r="D8" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="69"/>
+      <c r="E8" s="67"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
@@ -3300,14 +3300,14 @@
       <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="32" t="s">
+      <c r="C9" s="67"/>
+      <c r="D9" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="69"/>
+      <c r="E9" s="67"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
@@ -3318,10 +3318,10 @@
       <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="24"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="36"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
@@ -3332,10 +3332,10 @@
       <c r="A11" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="24"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="36"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
@@ -3346,10 +3346,10 @@
       <c r="A12" s="6">
         <v>5</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="36"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
@@ -3360,10 +3360,10 @@
       <c r="A13" s="6">
         <v>6</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="36"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
@@ -3374,10 +3374,10 @@
       <c r="A14" s="10">
         <v>7</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="12"/>
@@ -3385,23 +3385,41 @@
       <c r="J14" s="22"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="28"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="31"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="46"/>
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="F15:H15"/>
@@ -3411,24 +3429,6 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3497,88 +3497,88 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="35"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27"/>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="35"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="35"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="40" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="24"/>
+      <c r="E7" s="36"/>
       <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
@@ -3593,14 +3593,14 @@
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="48" t="s">
+      <c r="C8" s="54"/>
+      <c r="D8" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="49"/>
+      <c r="E8" s="54"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
@@ -3609,14 +3609,14 @@
       <c r="A9" s="14">
         <v>2</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="52" t="s">
+      <c r="C9" s="48"/>
+      <c r="D9" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="53"/>
+      <c r="E9" s="50"/>
       <c r="F9" s="15"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
@@ -3625,14 +3625,14 @@
       <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="54" t="s">
+      <c r="C10" s="52"/>
+      <c r="D10" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="55"/>
+      <c r="E10" s="52"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
@@ -3641,10 +3641,10 @@
       <c r="A11" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="36"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
@@ -3653,10 +3653,10 @@
       <c r="A12" s="6">
         <v>5</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="36"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
@@ -3665,10 +3665,10 @@
       <c r="A13" s="6">
         <v>6</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="36"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
@@ -3677,27 +3677,291 @@
       <c r="A14" s="10">
         <v>7</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="28"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="31"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="8" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29"/>
+    </row>
+    <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="25"/>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A7" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="36"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>2</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="36"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>3</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="36"/>
+      <c r="D10" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="36"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>4</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="36"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>5</v>
+      </c>
+      <c r="B12" s="39"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>6</v>
+      </c>
+      <c r="B13" s="39"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>7</v>
+      </c>
+      <c r="B14" s="40"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="43"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -3730,11 +3994,559 @@
     <mergeCell ref="D3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="25"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="36"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>2</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="36"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>3</v>
+      </c>
+      <c r="B10" s="38"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>4</v>
+      </c>
+      <c r="B11" s="57"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>5</v>
+      </c>
+      <c r="B12" s="38"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>6</v>
+      </c>
+      <c r="B13" s="38"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>7</v>
+      </c>
+      <c r="B14" s="39"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="43"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:H15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="25"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="36"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>2</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="36"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>3</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="36"/>
+      <c r="D10" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="36"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>4</v>
+      </c>
+      <c r="B11" s="39"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>5</v>
+      </c>
+      <c r="B12" s="39"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>6</v>
+      </c>
+      <c r="B13" s="39"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>7</v>
+      </c>
+      <c r="B14" s="40"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="43"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="46"/>
+    </row>
+    <row r="18" ht="36.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="36.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="36.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="36.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="36.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="36.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
@@ -3744,7 +4556,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="8" width="11.28515625" customWidth="1"/>
+    <col min="1" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
@@ -3752,93 +4564,93 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="35"/>
+      <c r="D1" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27"/>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="35"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="66"/>
     </row>
     <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="A4" s="18">
         <v>1</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="17">
         <v>2</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="61"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="35"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="40" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="24"/>
+      <c r="E7" s="36"/>
       <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
@@ -3849,66 +4661,66 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="24"/>
+      <c r="B8" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="36"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="24"/>
+      <c r="B9" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="36"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="24"/>
+      <c r="B10" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="36"/>
+      <c r="D10" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="36"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:8" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="24"/>
+      <c r="B11" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="36"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
@@ -3917,10 +4729,10 @@
       <c r="A12" s="6">
         <v>5</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="36"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
@@ -3929,10 +4741,10 @@
       <c r="A13" s="6">
         <v>6</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="36"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
@@ -3941,27 +4753,27 @@
       <c r="A14" s="10">
         <v>7</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="28"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="31"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -3997,340 +4809,64 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" customWidth="1"/>
+    <col min="1" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="35"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27"/>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="E2" s="26"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="35"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>1</v>
-      </c>
-      <c r="B4" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>2</v>
-      </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="35"/>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <v>1</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
-        <v>2</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <v>3</v>
-      </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
-        <v>4</v>
-      </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
-        <v>5</v>
-      </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
-        <v>6</v>
-      </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>7</v>
-      </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="31"/>
-    </row>
-  </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:H31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>5</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="35"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="35"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -4344,40 +4880,40 @@
       <c r="G4" s="56"/>
       <c r="H4" s="56"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29"/>
+    </row>
+    <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="35"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="25"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="40" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="24"/>
+      <c r="E7" s="36"/>
       <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
@@ -4388,130 +4924,108 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="24"/>
+      <c r="B8" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="36"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="24"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="36"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="24"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="36"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="36"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>5</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="36"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>6</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="36"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>7</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="28"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="31"/>
-    </row>
-    <row r="18" ht="36.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="36.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="36.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="36.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="36.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="36.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="46"/>
+    </row>
   </sheetData>
   <mergeCells count="27">
     <mergeCell ref="B4:H4"/>
@@ -4546,17 +5060,290 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="25"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="36"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>2</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="36"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>3</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="36"/>
+      <c r="D10" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="36"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>4</v>
+      </c>
+      <c r="B11" s="39"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>5</v>
+      </c>
+      <c r="B12" s="39"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>6</v>
+      </c>
+      <c r="B13" s="39"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>7</v>
+      </c>
+      <c r="B14" s="40"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="43"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="46"/>
+    </row>
+    <row r="34" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="42" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="41.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D1" sqref="D1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="9" width="13" customWidth="1"/>
+    <col min="1" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
@@ -4564,93 +5351,93 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="35"/>
+      <c r="D1" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27"/>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="63"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
     </row>
     <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="18">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
+      <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="66"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="35"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="40" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="24"/>
+      <c r="E7" s="36"/>
       <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
@@ -4661,66 +5448,58 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="24"/>
+      <c r="B8" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="36"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="24"/>
+      <c r="B9" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="36"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="24"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="36"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="24"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="36"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
@@ -4729,10 +5508,10 @@
       <c r="A12" s="6">
         <v>5</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="36"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
@@ -4741,10 +5520,10 @@
       <c r="A13" s="6">
         <v>6</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="36"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
@@ -4753,27 +5532,27 @@
       <c r="A14" s="10">
         <v>7</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="28"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="31"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -4807,783 +5586,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="8" width="17" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>7</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="35"/>
-    </row>
-    <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="35"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>1</v>
-      </c>
-      <c r="B4" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>2</v>
-      </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
-    </row>
-    <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="35"/>
-    </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <v>1</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
-        <v>2</v>
-      </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <v>3</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
-        <v>4</v>
-      </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
-        <v>5</v>
-      </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
-        <v>6</v>
-      </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>7</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="31"/>
-    </row>
-  </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:H42"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>8</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="35"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="35"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>1</v>
-      </c>
-      <c r="B4" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>2</v>
-      </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="35"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <v>1</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
-        <v>2</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <v>3</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
-        <v>4</v>
-      </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
-        <v>5</v>
-      </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
-        <v>6</v>
-      </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>7</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="31"/>
-    </row>
-    <row r="34" ht="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="42" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="41.25" customHeight="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="8" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>9</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="35"/>
-    </row>
-    <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="35"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>1</v>
-      </c>
-      <c r="B4" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>2</v>
-      </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
-    </row>
-    <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="35"/>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <v>1</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
-        <v>2</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <v>3</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
-        <v>4</v>
-      </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
-        <v>5</v>
-      </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
-        <v>6</v>
-      </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>7</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="31"/>
-    </row>
-  </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>